--- a/软件定义接入（统一描述模型）/content.xlsx
+++ b/软件定义接入（统一描述模型）/content.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验室相关\人机物\论文\RelatedWorks\软件定义建模与执行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\所有课程相关\人机物\接入\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37825D21-3B63-444D-BF7A-6592D2DE7FC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D2B73E-F7E6-4FE1-9C21-B85E2D2E2D5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="223" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" tabRatio="223" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Reactive Microservices for the Internet of Things: A case study in Fog Computing</t>
   </si>
@@ -62,6 +62,574 @@
   </si>
   <si>
     <t>First Author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NB_IoT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术的智能井盖锁系统的设计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针对电力、通信、供暖等窖井存在井盖或其井内设备容易被盗、人工巡检不及时、运维成本高、易倾斜存在安全隐患的问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NB-IoT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术的智能井盖锁系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>STM32L051C8T6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超低功耗芯片为控制芯片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NB-IoT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术进行通信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NFC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术设计安全的开关锁协议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过智能井盖管理软件实现对井盖的实时监测以及对井盖打开的记录。测试结果表明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该系统具有超低功耗、工作稳定、组网简单、实时性响应良好等特点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能够极大提高管理人员的效率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>具有良好的发展前景。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙钢灿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kns.cnki.net/kcms/detail/detail.aspx?dbcode=CJFD&amp;dbname=CJFDLAST2020&amp;filename=SJSJ202008009&amp;v=T8s7%25mmd2F3xLAdFpXYF1lst6GWLQDzRq3IDk15w4QtoTAgRH%25mmd2BAFbKb0lHykuA%25mmd2FMsEGAU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利用物联网、人工智能、大数据、云计算和三维可视化等先进互联网技术和产品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提出了以园区智慧化管理系统为核心的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管控一体化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>综合智慧园区系统设计技术。针对曹家滩智慧园区建设功能研究了设计原则要求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提出了智慧园区的总体框架和具体实施方案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建设了园区统一的信息资源支持体系、信息安全保障体系、基础设施支持体系和智能化管控保障体系等。结果表明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该方案能对园区内人员进行精准智能化管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现对园区的联动预警</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解决了子系统数据格式与类型差异所致信息孤岛问题、子系统间网络协议不兼容所致通信问题以及子系统相互叠加所致功能冗余问题。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于物联网平台的智慧园区设计与应用</t>
+  </si>
+  <si>
+    <t>韩存地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于物联网平台的智慧园区设计与应用 - 中国知网 (cnki.net)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In China,the methods of time-control,optical-control and time-optical-control are in common used to control street lamp,particularly in small and medium-sized cities. But the precision is bad,and the result of work is also poor.The main reason is the backward lighting control and administrative method. Through many kinds of sensor combination sense environment’s change,the multi-sensor exhibition can combinatory logically control the new intelligent street light controller system.And based on the degree of illumination control fixed time,in the automatic foundation fixed time,according to the multi-sensing exhibition survey data’s special combination change,to control the street light nimbly;the system can also realize the automatic timing control,by the preinstall time to control street light switch,ultimately, to control the street light timed;Simultaneously can also realize the automatic sunshine control,which may act according to the actual determination the sunlight degree of illumination and the degree of illumination control criterion,automatic control street light. On the basis of the merits both the regular control and the optical control,a new street smart controller is designed,with dual functions both timing control and automatic photoelectric control.It allows street lamps automatic lit in the evening,lighting the road for a few hours（adjustable time）.After 0:00,when few vehicles or pedestrians go past,it turn off automatically.And terminal controller has wake-up function.After the street light turn out automatically,when the vehicles or pedestrians are going through,street light will be waken up by terminal controller,When the vehicles or pedestrians past,the light auto-off.Design of new intelligent street light control system does not only achieve energy-saving power but also extend the service life of lighting equipment.Moreover,it is controllable,ease of maintenance.At the same time,it is helpful to highlight the festive and other characteristics,and ultimately make street light network,intelligence,humanity and art.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design of new intelligent street light control system</t>
+  </si>
+  <si>
+    <t>Wu Yue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design of new intelligent street light control system - 中国知网 (cnki.net)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金妍</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NB-IoT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术的智能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灯杆监控系统的研制</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对传统LED灯杆在远程监控、自动巡检、实时单灯调控、故障定位处理等方面存在的问题,本文提出基于窄带物联网（narrow band internet of things, NB-IoT）技术的智能LED灯杆监控系统的研制方案,采用STM32L151单片机作为主控芯片,控制多种传感器采集路灯信息,通过NB-IoT模块与核心网的连接,将采集到的路灯信息上传至OneNET云平台,并开发移动端应用程序（application, APP）和个人计算机（personal computer, PC）端监测界面以实现路灯故障信息的实时获取。实验结果显示:所研制的系统可以实时监测、控制路灯,快速、准确地确定故障路灯位置,实现单灯控制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于NB-IoT技术的智能LED灯杆监控系统的研制 - 中国知网 (cnki.net)</t>
+  </si>
+  <si>
+    <t>辛洪兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络机器人控制系统中异构机器人接入技术的研究</t>
+  </si>
+  <si>
+    <t>网络机器人控制系统中异构机器人接入技术的研究 - 中国知网 (cnki.net)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网络控制机器人是传统机器人和网络技术的结合。研究了异构机器人接入网络机器人控制系统的要求和途径。采用多态和模板的设计方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现了一种异构机器人动态接入方法。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -69,7 +637,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +664,49 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -114,10 +725,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -125,16 +737,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,24 +1036,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="67.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.73046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="176.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.53125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="9.08203125" style="1"/>
+    <col min="2" max="2" width="67.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="176.4140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -449,35 +1073,172 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>2019</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C4" s="3"/>
+    <row r="3" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="126" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2009</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2009</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{F4BE788B-EB21-4563-A396-198FC21ECFD8}"/>
+    <hyperlink ref="F4" r:id="rId2" display="https://kns.cnki.net/kcms/detail/detail.aspx?dbcode=CJFD&amp;dbname=CJFDLAST2021&amp;filename=MINI202101028&amp;v=zNZ39QVS5bYv8OeYZxuTF1VEUHFoHJ69WbEYJoQNkf4LD6oZQyK%25mmd2FIRP9eakPauen" xr:uid="{CD663F9A-F18C-4D5B-9624-0865314D6825}"/>
+    <hyperlink ref="F5" r:id="rId3" display="https://kns.cnki.net/kcms/detail/detail.aspx?dbcode=CPFD&amp;dbname=CPFD0914&amp;filename=ZNZD200909001064&amp;v=u4%25mmd2BY4Q2rE3Wdwfv9bqLXT%25mmd2FyTjtINm9XnQt4uCTA4fVty2gk%25mmd2F48sq3E%25mmd2F%25mmd2BD59T2Oh%25mmd2B6DaXXW8MHzI%3d" xr:uid="{9DBF5EE7-5FF9-4B2A-A0EB-39108E699F2A}"/>
+    <hyperlink ref="F6" r:id="rId4" display="https://kns.cnki.net/kcms/detail/detail.aspx?dbcode=CJFD&amp;dbname=CJFDLAST2021&amp;filename=YYKX202102006&amp;v=xwyo13Ftnz7ORd%25mmd2FhT5eZSUzgWB5jiX8230NjOD3AcpwnKLYIhgVD9S0BackNrVBq" xr:uid="{70503644-E247-4970-8BA2-21BB5196EB37}"/>
+    <hyperlink ref="F7" r:id="rId5" display="https://kns.cnki.net/kcms/detail/detail.aspx?dbcode=CJFD&amp;dbname=CJFD2009&amp;filename=JXGY200907007&amp;v=DiY9ZEsb72T76Jb2wINUtrWxs0Y45AJeDFmFI7M8Qb9kN0Ji5GRFkwn%25mmd2FujakVY18" xr:uid="{BB613340-68BD-4CA4-A33A-90D76079B1E8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>